--- a/log_history/Y4_B2526_Immuno_hema_scanner5359933180296_d00cfd5e70ceccca002dc2270b48d57750b4810fb0e2d7436582e39586577055.xlsx
+++ b/log_history/Y4_B2526_Immuno_hema_scanner5359933180296_d00cfd5e70ceccca002dc2270b48d57750b4810fb0e2d7436582e39586577055.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709819F1-8287-4D73-B30F-ACC7A158FFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0EF000-F805-4AD4-A319-E966F4F6565C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{439C430F-F782-0B42-8AD5-1D6D2C413F32}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="9">
   <si>
     <t>Subject</t>
   </si>
@@ -56,16 +56,22 @@
     <t>Immuno&amp;hema</t>
   </si>
   <si>
-    <t>Manual</t>
+    <t>Student ID</t>
   </si>
   <si>
-    <t>Studient ID</t>
+    <t>Edited</t>
+  </si>
+  <si>
+    <t>System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -97,8 +103,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,22 +442,26 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H29"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="10.6640625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -468,14 +478,17 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -485,14 +498,17 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -502,14 +518,17 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -519,14 +538,17 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -536,14 +558,17 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -553,14 +578,17 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -570,14 +598,17 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -587,14 +618,17 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -604,14 +638,17 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -621,14 +658,17 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -638,14 +678,17 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -655,14 +698,17 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -672,14 +718,17 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -689,14 +738,17 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -706,239 +758,281 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>221193</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>221194</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>221195</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>221196</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>221197</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>221198</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>221199</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>221200</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>221201</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D25" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>221202</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D26" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>221203</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D27" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>221204</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>221205</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2">
-        <v>45921</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="1">
+        <v>45921</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.521087962962963</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>